--- a/资料/国赛赛题索引.xlsx
+++ b/资料/国赛赛题索引.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\modeling\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7C0B5D-C179-4AA9-B1B6-46F9B6A81C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6084CE-7885-44CD-9239-06051085EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,272 @@
   </si>
   <si>
     <t>支持向量机+层次分析法+主成分分析+层次聚类（C065）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡方检验+决策树+聚类分析+灰色关联分析（C155）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策树+偏最小二乘判别分析+聚类分析+相关分析（C229)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单目标优化模型（A115）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线性最小二乘法优化+BFGS（非线性优化算法，用于求解无约束优化问题）（A217）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性分析+非线性回归拟合+降维+最优化（B007）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic增长模型+非线性规划（B026）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元回归+BP神经网络+主成分分析(B050)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类+预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPSIS+评价模型+遗传算法+多目标规划模型（C066）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPSIS+随机规划模型（C085）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传优化算法+线性规划+多目标规划（C169）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多目标优化（爬山法）（A147）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传算法（A195）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价+优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟退火算法（A211)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈论（B078）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈论+马尔科夫链（B125）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔可夫决策过程+马尔可夫预测（B175）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成学习+L1正则化+决策树模型（C109）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP神经网络+遗传算法（C142）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熵权法+TOPSIS+Logistic回归+BP神经网络（C179）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征工程+集成学习+聚类+决策树（C227）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟退火算法（★）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队论+目标优化（2019C：机场出租车司机综合决策及机场出租车管理模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启发式算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据文献建立的数学模型（★）+遗传算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能优化算法（遗传算法、模拟退火算法、粒子群算法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1规划+混合线性整数规划+区间估计+正态分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计模型+集成算法+改良遗传算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持向量机+改良遗传算法+粒子群算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经网络+卡方检验+Point-Biserial 相关性分析法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Wilcoxon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>符号秩检验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二元阻滞增长模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +PCA+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成学习+LightGBM+RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatBoost+Xgboost+LightGBM+组合优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型相关性分析+主成分分析+神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">斯皮尔曼相关性分析+因子分析降维+TOPSIS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化+评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类+智能优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类+BP神经网络+集成学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">赋权 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">K-means </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法+DBSCAN 算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性规划+BP神经网络+因子分析+动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +635,38 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -403,10 +701,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -687,21 +986,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="52.08203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="46.4140625" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,16 +1018,22 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -734,360 +1041,582 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="14.5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>77</v>
       </c>
